--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -477,17 +479,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -502,7 +504,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43802</v>
       </c>
@@ -544,7 +546,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -558,7 +560,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43868</v>
       </c>
@@ -587,7 +589,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -609,7 +611,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43894</v>
       </c>
@@ -638,7 +640,7 @@
         <v>252.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -660,27 +662,78 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43929</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8890</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f>D8*E8</f>
+        <v>449</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>492.74</v>
+      </c>
+      <c r="H8" s="5">
+        <v>500.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2468</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f>D9*E9</f>
+        <v>43.74</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
-        <f>SUM(G4:G7)</f>
-        <v>566.80000000000007</v>
-      </c>
-      <c r="H8" s="5">
-        <f>SUM(H4:H7)</f>
-        <v>570.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="5">
+        <f>SUM(G4:G9)</f>
+        <v>1059.54</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H4:H9)</f>
+        <v>1070.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5">
-        <f>SUM(H8,-G8)</f>
-        <v>3.5999999999999091</v>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
+        <f>SUM(H10,-G10)</f>
+        <v>10.880000000000109</v>
       </c>
     </row>
   </sheetData>
@@ -691,12 +744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,12 +758,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="9">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>269.40000000000003</v>
       </c>
       <c r="G4" s="5">
@@ -605,7 +605,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="9">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>48.6</v>
       </c>
       <c r="G5" s="3"/>
@@ -622,14 +622,14 @@
         <v>8790</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="0">SUM(C6,-C4)</f>
+        <f t="shared" ref="D6:D7" si="1">SUM(C6,-C4)</f>
         <v>50</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="9">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>224.5</v>
       </c>
       <c r="G6" s="5">
@@ -649,14 +649,14 @@
         <v>2450</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E7" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="9">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
       <c r="G7" s="3"/>
@@ -673,14 +673,14 @@
         <v>8890</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
         <v>100</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="9">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>449</v>
       </c>
       <c r="G8" s="5">
@@ -700,40 +700,142 @@
         <v>2468</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E9" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>43.74</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="10">
+        <v>43959</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9030</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <v>140</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>628.6</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>677.2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>687.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2488</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="4"/>
+        <v>48.6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43986</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9150</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>120</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>538.80000000000007</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(F12,F13)</f>
+        <v>587.40000000000009</v>
+      </c>
+      <c r="H12" s="5">
+        <v>587.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2508</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="6"/>
+        <v>48.6</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
-        <f>SUM(G4:G9)</f>
-        <v>1059.54</v>
-      </c>
-      <c r="H10" s="5">
-        <f>SUM(H4:H9)</f>
-        <v>1070.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="G14" s="5">
+        <f>SUM(G4:G13)</f>
+        <v>2324.1400000000003</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H4:H13)</f>
+        <v>2345.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5">
-        <f>SUM(H10,-G10)</f>
-        <v>10.880000000000109</v>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>21.279999999999745</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -816,25 +816,76 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="10">
+        <v>44021</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9303</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>153</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>686.97</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>755.01</v>
+      </c>
+      <c r="H14" s="5">
+        <v>755.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2536</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="8"/>
+        <v>68.040000000000006</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
-        <f>SUM(G4:G13)</f>
-        <v>2324.1400000000003</v>
-      </c>
-      <c r="H14" s="5">
-        <f>SUM(H4:H13)</f>
-        <v>2345.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="5">
+        <f>SUM(G4:G15)</f>
+        <v>3079.1500000000005</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H4:H15)</f>
+        <v>3100.4300000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
         <v>21.279999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <f t="shared" ref="F12:F15" si="6">D12*E12</f>
         <v>538.80000000000007</v>
       </c>
       <c r="G12" s="5">
@@ -826,14 +826,14 @@
         <v>9303</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <f>SUM(C14,-C12)</f>
         <v>153</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <f t="shared" si="6"/>
         <v>686.97</v>
       </c>
       <c r="G14" s="5">
@@ -853,39 +853,90 @@
         <v>2536</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
+        <f>SUM(C15,-C13)</f>
         <v>28</v>
       </c>
       <c r="E15" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>68.040000000000006</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="10">
+        <v>44047</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9408</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>105</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
+        <v>471.45000000000005</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>529.7700000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>529.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2560</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>24</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="7"/>
+        <v>58.320000000000007</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
-        <f>SUM(G4:G15)</f>
-        <v>3079.1500000000005</v>
-      </c>
-      <c r="H16" s="5">
-        <f>SUM(H4:H15)</f>
-        <v>3100.4300000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G18" s="5">
+        <f>SUM(G4:G17)</f>
+        <v>3608.9200000000005</v>
+      </c>
+      <c r="H18" s="5">
+        <f>SUM(H4:H17)</f>
+        <v>3630.2000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
         <v>21.279999999999745</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,15 +881,15 @@
         <v>105</v>
       </c>
       <c r="E16" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:F17" si="7">D16*E16</f>
-        <v>471.45000000000005</v>
+        <v>494.55</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>529.7700000000001</v>
+        <v>555.75</v>
       </c>
       <c r="H16" s="5">
         <v>529.77</v>
@@ -908,36 +908,87 @@
         <v>24</v>
       </c>
       <c r="E17" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="7"/>
-        <v>58.320000000000007</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="10">
+        <v>44077</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9538</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>130</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>612.29999999999995</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(F18,F19)</f>
+        <v>701.55</v>
+      </c>
+      <c r="H18" s="5">
+        <v>668.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2595</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>35</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="8"/>
+        <v>89.25</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f>SUM(G4:G17)</f>
-        <v>3608.9200000000005</v>
-      </c>
-      <c r="H18" s="5">
+        <v>3634.9000000000005</v>
+      </c>
+      <c r="H20" s="5">
         <f>SUM(H4:H17)</f>
         <v>3630.2000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
-        <v>21.279999999999745</v>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5">
+        <f>SUM(H20,-G20)</f>
+        <v>-4.7000000000002728</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
         <v>9303</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D21" si="7">SUM(C14,-C12)</f>
         <v>153</v>
       </c>
       <c r="E14" s="7">
@@ -853,7 +853,7 @@
         <v>2536</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="E15" s="8">
@@ -877,14 +877,14 @@
         <v>9408</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
         <v>494.55</v>
       </c>
       <c r="G16" s="5">
@@ -904,14 +904,14 @@
         <v>2560</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E17" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.199999999999996</v>
       </c>
       <c r="G17" s="3"/>
@@ -928,14 +928,14 @@
         <v>9538</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
         <v>612.29999999999995</v>
       </c>
       <c r="G18" s="5">
@@ -955,40 +955,91 @@
         <v>2595</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="E19" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.25</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="10">
+        <v>44110</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9738</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(F20,F21)</f>
+        <v>1018.5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2625</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="10"/>
+        <v>76.5</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
-        <f>SUM(G4:G17)</f>
-        <v>3634.9000000000005</v>
-      </c>
-      <c r="H20" s="5">
-        <f>SUM(H4:H17)</f>
-        <v>3630.2000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="5">
+        <f>SUM(G4:G21)</f>
+        <v>5354.9500000000007</v>
+      </c>
+      <c r="H22" s="5">
+        <f>SUM(H4:H21)</f>
+        <v>5268.9500000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5">
-        <f>SUM(H20,-G20)</f>
-        <v>-4.7000000000002728</v>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5">
+        <f>SUM(H22,-G22)</f>
+        <v>-86</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,63 +530,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>43802</v>
+        <v>44110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>8680</v>
+        <v>9738</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2420</v>
+        <v>2625</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>43868</v>
+        <v>44140</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>8740</v>
+        <v>9838</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
-        <v>60</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>100</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>269.40000000000003</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>471</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>318.00000000000006</v>
+        <v>522</v>
       </c>
       <c r="H4" s="5">
-        <v>318</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,457 +595,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2440</v>
+        <v>2645</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E5" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>48.6</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43894</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8790</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="1">SUM(C6,-C4)</f>
-        <v>50</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>224.5</v>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <f>SUM(F6,F7)</f>
-        <v>248.8</v>
+        <f>SUM(G2:G5)</f>
+        <v>522</v>
       </c>
       <c r="H6" s="5">
-        <v>252.4</v>
+        <f>SUM(H2:H5)</f>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2450</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>24.3</v>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>43929</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="H7" s="5">
+        <f>SUM(H6,-G6)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8890</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>100</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>449</v>
-      </c>
-      <c r="G8" s="5">
-        <f>SUM(F8,F9)</f>
-        <v>492.74</v>
-      </c>
-      <c r="H8" s="5">
-        <v>500.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2468</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>43.74</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>43959</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9030</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
-        <v>140</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>628.6</v>
-      </c>
-      <c r="G10" s="5">
-        <f>SUM(F10,F11)</f>
-        <v>677.2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>687.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2488</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="4"/>
-        <v>48.6</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43986</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9150</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
-        <v>120</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12:F15" si="6">D12*E12</f>
-        <v>538.80000000000007</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(F12,F13)</f>
-        <v>587.40000000000009</v>
-      </c>
-      <c r="H12" s="5">
-        <v>587.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2508</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="6"/>
-        <v>48.6</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>44021</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9303</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="7">SUM(C14,-C12)</f>
-        <v>153</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="6"/>
-        <v>686.97</v>
-      </c>
-      <c r="G14" s="5">
-        <f>SUM(F14,F15)</f>
-        <v>755.01</v>
-      </c>
-      <c r="H14" s="5">
-        <v>755.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2536</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="6"/>
-        <v>68.040000000000006</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44047</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9408</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>494.55</v>
-      </c>
-      <c r="G16" s="5">
-        <f>SUM(F16,F17)</f>
-        <v>555.75</v>
-      </c>
-      <c r="H16" s="5">
-        <v>529.77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2560</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="8"/>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>44077</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9538</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
-        <v>612.29999999999995</v>
-      </c>
-      <c r="G18" s="5">
-        <f>SUM(F18,F19)</f>
-        <v>701.55</v>
-      </c>
-      <c r="H18" s="5">
-        <v>668.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2595</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="9"/>
-        <v>89.25</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44110</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9738</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
-        <v>942</v>
-      </c>
-      <c r="G20" s="5">
-        <f>SUM(F20,F21)</f>
-        <v>1018.5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2625</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="10"/>
-        <v>76.5</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <f>SUM(G4:G21)</f>
-        <v>5354.9500000000007</v>
-      </c>
-      <c r="H22" s="5">
-        <f>SUM(H4:H21)</f>
-        <v>5268.9500000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5">
-        <f>SUM(H22,-G22)</f>
-        <v>-86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,25 +612,76 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="10">
+        <v>44169</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9928</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>90</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>423.9</v>
+      </c>
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>474.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>474.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2665</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
-        <f>SUM(G2:G5)</f>
-        <v>522</v>
-      </c>
-      <c r="H6" s="5">
-        <f>SUM(H2:H5)</f>
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="5">
+        <f>SUM(G2:G7)</f>
+        <v>996.9</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUM(H2:H7)</f>
+        <v>996.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5">
-        <f>SUM(H6,-G6)</f>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,7 +483,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -663,25 +663,76 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="10">
+        <v>44208</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10038</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>110</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>518.1</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>569.1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>569.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2685</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G10" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H10" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,25 +714,178 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="10">
+        <v>44236</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10098</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>60</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>333.6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>333.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2705</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44264</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10158</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>60</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(F12,F13)</f>
+        <v>333.6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>333.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2725</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44299</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10238</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>80</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>376.8</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>402.3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>402.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2735</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G10" s="5">
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="11"/>
+        <v>25.5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H16" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5">
-        <f>SUM(H10,-G10)</f>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,25 +867,76 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="10">
+        <v>44329</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10338</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>471</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>496.5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>496.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2745</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="13"/>
+        <v>25.5</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -918,25 +918,76 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="10">
+        <v>44363</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10438</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>471</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(F18,F19)</f>
+        <v>522</v>
+      </c>
+      <c r="H18" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2765</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="15"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H20" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,25 +969,76 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10538</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>471</v>
+      </c>
+      <c r="G20" s="5">
+        <f>SUM(F20,F21)</f>
+        <v>522</v>
+      </c>
+      <c r="H20" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2785</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G22" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5">
+        <f>SUM(H22,-G22)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1020,25 +1020,76 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="10">
+        <v>44417</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10638</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>496</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(F22,F23)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H22" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="19"/>
+        <v>53.6</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G24" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H24" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5">
+        <f>SUM(H24,-G24)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1071,25 +1071,76 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="10">
+        <v>44447</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10738</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>496</v>
+      </c>
+      <c r="G24" s="5">
+        <f>SUM(F24,F25)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H24" s="5">
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2825</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="21"/>
+        <v>53.6</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G26" s="5">
         <f>SUM(G2:G7)</f>
         <v>996.9</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H26" s="5">
         <f>SUM(H2:H7)</f>
         <v>996.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="5">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5">
+        <f>SUM(H26,-G26)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -99,12 +99,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +188,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,20 +549,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>44110</v>
+      <c r="A2" s="12">
+        <v>44477</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>9738</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+        <v>10838</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUM(C2,-C4)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>496</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(F2,F3)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>549.6</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -552,41 +583,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2625</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+        <v>2845</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(C3,-C5)</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>44140</v>
+      <c r="A4" s="13">
+        <v>44447</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9838</v>
+        <v>10738</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <f>SUM(C4,-C6)</f>
         <v>100</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>471</v>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>496</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>522</v>
+        <v>549.6</v>
       </c>
       <c r="H4" s="5">
-        <v>522</v>
+        <v>549.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,49 +634,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2645</v>
+        <v>2825</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C5,-C7)</f>
         <v>20</v>
       </c>
       <c r="E5" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>53.6</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44169</v>
+        <v>44417</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>9928</v>
+        <v>10638</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>90</v>
+        <f>SUM(C6,-C8)</f>
+        <v>100</v>
       </c>
       <c r="E6" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>423.9</v>
+        <f t="shared" si="1"/>
+        <v>496</v>
       </c>
       <c r="G6" s="5">
         <f>SUM(F6,F7)</f>
-        <v>474.9</v>
+        <v>549.6</v>
       </c>
       <c r="H6" s="5">
-        <v>474.9</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,50 +685,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2665</v>
+        <v>2805</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f>SUM(C7,-C9)</f>
         <v>20</v>
       </c>
       <c r="E7" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>53.6</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44208</v>
+        <v>44378</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10038</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>110</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>518.1</v>
-      </c>
-      <c r="G8" s="5">
-        <f>SUM(F8,F9)</f>
-        <v>569.1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>569.1</v>
-      </c>
+        <v>10538</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -697,452 +723,27 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2685</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
+        <v>2785</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44236</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10098</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>60</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G10" s="5">
-        <f>SUM(F10,F11)</f>
-        <v>333.6</v>
-      </c>
-      <c r="H10" s="5">
-        <v>333.6</v>
-      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2705</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="7"/>
-        <v>51</v>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>44264</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10158</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(F12,F13)</f>
-        <v>333.6</v>
-      </c>
-      <c r="H12" s="5">
-        <v>333.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2725</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>44299</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10238</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
-        <v>80</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>376.8</v>
-      </c>
-      <c r="G14" s="5">
-        <f>SUM(F14,F15)</f>
-        <v>402.3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>402.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2735</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="11"/>
-        <v>25.5</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44329</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10338</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
-        <v>100</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>471</v>
-      </c>
-      <c r="G16" s="5">
-        <f>SUM(F16,F17)</f>
-        <v>496.5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>496.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2745</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="13"/>
-        <v>25.5</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>44363</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10438</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>471</v>
-      </c>
-      <c r="G18" s="5">
-        <f>SUM(F18,F19)</f>
-        <v>522</v>
-      </c>
-      <c r="H18" s="5">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2765</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="15"/>
-        <v>51</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44378</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10538</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>100</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>471</v>
-      </c>
-      <c r="G20" s="5">
-        <f>SUM(F20,F21)</f>
-        <v>522</v>
-      </c>
-      <c r="H20" s="5">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2785</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="17"/>
-        <v>51</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>44417</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10638</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>496</v>
-      </c>
-      <c r="G22" s="5">
-        <f>SUM(F22,F23)</f>
-        <v>549.6</v>
-      </c>
-      <c r="H22" s="5">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2805</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="19"/>
-        <v>53.6</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>44447</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10738</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
-        <v>496</v>
-      </c>
-      <c r="G24" s="5">
-        <f>SUM(F24,F25)</f>
-        <v>549.6</v>
-      </c>
-      <c r="H24" s="5">
-        <v>549.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2825</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="21"/>
-        <v>53.6</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="5">
-        <f>SUM(G2:G7)</f>
-        <v>996.9</v>
-      </c>
-      <c r="H26" s="5">
-        <f>SUM(H2:H7)</f>
-        <v>996.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="5">
-        <f>SUM(H26,-G26)</f>
-        <v>0</v>
-      </c>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/37ee.xlsx
+++ b/sputnik/personal/ee/37ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,23 +550,23 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44477</v>
+        <v>44536</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>10838</v>
+        <v>11038</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
         <v>100</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>496</v>
       </c>
       <c r="G2" s="5">
@@ -583,17 +583,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2845</v>
+        <v>2885</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.6</v>
       </c>
       <c r="G3" s="3"/>
@@ -601,23 +601,23 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44447</v>
+        <v>44508</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10738</v>
+        <v>10938</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
         <v>100</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
         <v>496</v>
       </c>
       <c r="G4" s="5">
@@ -634,41 +634,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2825</v>
+        <v>2865</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.6</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>44417</v>
+      <c r="A6" s="13">
+        <v>44477</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10638</v>
+        <v>10838</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E6" s="7">
         <v>4.96</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
         <v>496</v>
       </c>
       <c r="G6" s="5">
@@ -676,7 +676,7 @@
         <v>549.6</v>
       </c>
       <c r="H6" s="5">
-        <v>522</v>
+        <v>549.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,37 +685,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2805</v>
+        <v>2845</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E7" s="8">
         <v>2.68</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53.6</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>44378</v>
+      <c r="A8" s="13">
+        <v>44447</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10538</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>10738</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F11" si="5">D8*E8</f>
+        <v>496</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>549.6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -723,27 +736,116 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2785</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+        <v>2825</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="5"/>
+        <v>53.6</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="10">
+        <v>44417</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10638</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="5"/>
+        <v>496</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2805</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="5"/>
+        <v>53.6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10538</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2785</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
